--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>1.227975449369573e-27</v>
+        <v>3.387184067100904e-30</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.278593328537624e-27</v>
+        <v>8.804694076685572e-30</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.511759076403477e-27</v>
+        <v>1.290941874930716e-29</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>1.934776828240587e-27</v>
+        <v>1.282540428386987e-29</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>2.356841059786193e-27</v>
+        <v>1.297411972734829e-29</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>4.408214613802741e-27</v>
+        <v>1.355757365452523e-29</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>6.624692097535517e-27</v>
+        <v>1.154191705364681e-29</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.710462278778779e-26</v>
+        <v>1.20613249645322e-29</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>2.601599088817353e-26</v>
+        <v>8.871365860802545e-30</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>2.543298322363535e-26</v>
+        <v>1.048368887667041e-29</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>1.860388133731761e-26</v>
+        <v>7.669089271636929e-30</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>8.741146872926939e-27</v>
+        <v>6.421135812892897e-30</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>6.529228876192812e-27</v>
+        <v>4.508038176185443e-31</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>8.089725142450433e-27</v>
+        <v>2.698956915363031e-31</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>3.481191830762071e-27</v>
+        <v>2.72219920931961e-31</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>2.435212684773152e-27</v>
+        <v>2.298706083301455e-31</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>1.325853106326833e-27</v>
+        <v>2.324728061321201e-31</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>6.147415599604181e-28</v>
+        <v>2.954247080924659e-31</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>4.605790247257396e-28</v>
+        <v>2.396500719341296e-31</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>4.489525046206404e-28</v>
+        <v>2.750155056328939e-31</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0566878350723e-28</v>
+        <v>5.172297486773903e-31</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>6.059365478504144e-28</v>
+        <v>5.717527380704424e-31</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>5.569422083700818e-28</v>
+        <v>7.398146180171565e-31</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>1.110778609654349e-27</v>
+        <v>7.88602277221754e-31</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>1.58889156872504e-27</v>
+        <v>6.730631076608869e-31</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.435958185360685e-27</v>
+        <v>7.977367095642915e-31</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>7.652875176789324e-27</v>
+        <v>7.089907179183019e-31</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>6.690355327887543e-27</v>
+        <v>7.320013729848629e-31</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>3.232852602218099e-27</v>
+        <v>7.068798468782812e-31</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>1.495566824524633e-27</v>
+        <v>6.876606077610962e-31</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>6.641074166746736e-28</v>
+        <v>6.334452391432894e-31</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>6.107610762674936e-28</v>
+        <v>5.708667975677076e-31</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.796646373732019e-28</v>
+        <v>6.636351147973114e-31</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.998511108898109e-28</v>
+        <v>5.658358575262e-31</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.809132263140983e-28</v>
+        <v>5.355102709695104e-31</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>1.940758426561799e-28</v>
+        <v>3.385656880230069e-31</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>3.687149822254982e-28</v>
+        <v>3.370139407943839e-31</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.947225504856682e-28</v>
+        <v>2.703837432177808e-31</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>7.709719881010301e-29</v>
+        <v>3.259901142066387e-31</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>5.908452930981348e-29</v>
+        <v>4.839519243500251e-31</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>4.234350726551686e-29</v>
+        <v>4.810780691194328e-31</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>4.255931257395709e-29</v>
+        <v>4.375514213923185e-31</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>6.026672440908549e-29</v>
+        <v>3.688197789008864e-31</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>1.311537809658316e-28</v>
+        <v>3.634789533108783e-31</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>1.409400951434623e-28</v>
+        <v>3.280968929591973e-31</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>1.436089449292557e-28</v>
+        <v>1.656619938610022e-31</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>1.401681737404263e-28</v>
+        <v>1.654464590725184e-31</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>1.173762061537803e-28</v>
+        <v>1.877144342528265e-31</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>9.117028685259633e-29</v>
+        <v>2.352056437455619e-31</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>6.082910837998857e-29</v>
+        <v>2.806675330085379e-31</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>4.912217243768918e-29</v>
+        <v>5.143298199079321e-31</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>4.502178856327556e-29</v>
+        <v>7.572263697486492e-31</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>4.374413361467573e-29</v>
+        <v>1.934746058904744e-30</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>4.011464070533468e-29</v>
+        <v>2.911583216526458e-30</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>3.588143147282352e-29</v>
+        <v>2.788824925338678e-30</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>3.280066619861269e-29</v>
+        <v>2.006329516654021e-30</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>3.604335515183547e-29</v>
+        <v>9.268826587576169e-31</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>4.429117554812444e-29</v>
+        <v>6.893858597413877e-31</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>5.997119712428821e-29</v>
+        <v>8.50825595637585e-31</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>6.991197354058541e-29</v>
+        <v>3.645002191143839e-31</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>8.257816018272334e-29</v>
+        <v>2.535194202538146e-31</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>9.535992539296599e-29</v>
+        <v>1.366102378691681e-31</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>9.815054319996692e-29</v>
+        <v>6.200906196396958e-32</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.12434870945831e-28</v>
+        <v>4.626919706814591e-32</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.225251218913249e-28</v>
+        <v>4.483070682634276e-32</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.186424250930107e-28</v>
+        <v>4.997419693652423e-32</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.230058377210984e-28</v>
+        <v>5.924465268503895e-32</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.181132377608655e-28</v>
+        <v>5.398528209452042e-32</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.132321474754731e-28</v>
+        <v>1.064149503015937e-31</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.071777281913979e-28</v>
+        <v>1.505922838635034e-31</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.046277190961966e-28</v>
+        <v>3.192594000875854e-31</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>9.606254221912802e-29</v>
+        <v>6.959356373067382e-31</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>9.150633143796351e-29</v>
+        <v>5.959771955084904e-31</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>6.657078289763781e-29</v>
+        <v>2.821287983184428e-31</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>5.784148974587209e-29</v>
+        <v>1.278242517891887e-31</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>4.598014418116189e-29</v>
+        <v>5.557322006975711e-32</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>3.166714348021365e-29</v>
+        <v>5.008893555411322e-32</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>2.710650477913275e-29</v>
+        <v>3.048213264539325e-32</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>2.19654967296609e-29</v>
+        <v>2.359408236610128e-32</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>2.019042754312253e-29</v>
+        <v>1.408173033141432e-32</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.021180700525517e-29</v>
+        <v>1.495690922879052e-32</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.953111719572289e-29</v>
+        <v>2.783249430954995e-32</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.784643741800695e-29</v>
+        <v>1.409663263207798e-32</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.732520583962925e-29</v>
+        <v>5.466403313797001e-33</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.704163870672659e-29</v>
+        <v>4.105121517202542e-33</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.843431504777345e-29</v>
+        <v>2.821888932824311e-33</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>1.934927674041855e-29</v>
+        <v>2.721119688475342e-33</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>1.966249628319425e-29</v>
+        <v>3.696685982394111e-33</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>1.905669126986395e-29</v>
+        <v>7.958827813418588e-33</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.806003289179328e-29</v>
+        <v>8.487299186111075e-33</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>1.611147004588191e-29</v>
+        <v>8.450109983643522e-33</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.302775482011603e-29</v>
+        <v>8.162887033897293e-33</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>7.217259962220681e-30</v>
+        <v>6.762788075807209e-33</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>5.725814210466163e-30</v>
+        <v>5.145695134420076e-33</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>4.327349400690999e-30</v>
+        <v>3.364134329358895e-33</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>2.969847874573932e-30</v>
+        <v>2.660304263975535e-33</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.603155051100129e-30</v>
+        <v>2.427490646367562e-33</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.447227821105201e-30</v>
+        <v>2.343434563694107e-33</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>2.407212418449483e-30</v>
+        <v>2.127749961683648e-33</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>2.232736741809314e-30</v>
+        <v>1.864797015469909e-33</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.190894770389288e-30</v>
+        <v>1.634934189721488e-33</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>2.189853531726779e-30</v>
+        <v>1.736977264999213e-33</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>2.174532093797489e-30</v>
+        <v>2.032473122229852e-33</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>2.086284227879837e-30</v>
+        <v>2.695400288623103e-33</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.999655938562072e-30</v>
+        <v>3.076273059353214e-33</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>1.953252019273325e-30</v>
+        <v>3.560267607602993e-33</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.713381591575633e-30</v>
+        <v>4.058885041979417e-33</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.71638217646296e-30</v>
+        <v>4.142799417428227e-33</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.711925619723162e-30</v>
+        <v>4.679927716214439e-33</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>1.643642316504223e-30</v>
+        <v>4.99697737208603e-33</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.36570199088796e-30</v>
+        <v>4.803425674377926e-33</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.116995636978022e-30</v>
+        <v>4.913488230997973e-33</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.002255450131749e-30</v>
+        <v>4.668304280848891e-33</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>9.607347797527682e-31</v>
+        <v>4.448726667346978e-33</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>1.135794707853292e-30</v>
+        <v>4.183692033557373e-33</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.852158663603707e-30</v>
+        <v>4.065808864034982e-33</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.20105739203491e-30</v>
+        <v>3.711656551620863e-33</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>2.254338707762553e-30</v>
+        <v>3.522217728970981e-33</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>2.215142912643532e-30</v>
+        <v>2.509386822021742e-33</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>2.201632988976385e-30</v>
+        <v>2.156227479809933e-33</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>2.191109801091754e-30</v>
+        <v>1.697779478910773e-33</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>1.968262443193015e-30</v>
+        <v>1.145348983238858e-33</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.755581698714814e-30</v>
+        <v>9.695777338083785e-34</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>9.681263138835821e-31</v>
+        <v>7.778229616674977e-34</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>4.95623091863002e-31</v>
+        <v>7.106775990012074e-34</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>3.53001287055071e-31</v>
+        <v>7.112530557150636e-34</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>3.198563118329989e-31</v>
+        <v>6.845108209803814e-34</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>4.002408144480631e-31</v>
+        <v>6.190393647614942e-34</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>4.280719481797733e-31</v>
+        <v>5.971939499575316e-34</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>5.967989752720375e-31</v>
+        <v>5.846598884190282e-34</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>7.054995819818708e-31</v>
+        <v>6.289332134333095e-34</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>6.906744544018849e-31</v>
+        <v>6.558906536027378e-34</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>6.262006848762797e-31</v>
+        <v>6.626341607868384e-34</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>5.324099363407268e-31</v>
+        <v>6.378766607034769e-34</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>5.26856781962241e-31</v>
+        <v>6.010024084042665e-34</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>4.454557896876946e-31</v>
+        <v>5.304276616181926e-34</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>3.565067535898488e-31</v>
+        <v>4.245933357942853e-34</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>3.06521802968483e-31</v>
+        <v>2.303726275954966e-34</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>2.915313732393594e-31</v>
+        <v>1.808690407963662e-34</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>2.727904877313292e-31</v>
+        <v>1.354041008664339e-34</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>2.633576278687158e-31</v>
+        <v>9.107439342504167e-35</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>2.393307752441982e-31</v>
+        <v>7.887454751001338e-35</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>2.506308552472846e-31</v>
+        <v>7.357849085105115e-35</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.734453167344444e-31</v>
+        <v>7.1920408199853e-35</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>2.935560952744327e-31</v>
+        <v>6.641349316224261e-35</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>3.122838223921369e-31</v>
+        <v>6.502035395603552e-35</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>3.415859835351396e-31</v>
+        <v>6.493016122093346e-35</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>3.625820316376892e-31</v>
+        <v>6.443843466562731e-35</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>3.456134698172123e-31</v>
+        <v>6.154569422590061e-35</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>3.303071010008462e-31</v>
+        <v>5.874835203351278e-35</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>2.787512393891101e-31</v>
+        <v>5.714271229954066e-35</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>2.732183328069716e-31</v>
+        <v>4.993016104115329e-35</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>2.31109623578973e-31</v>
+        <v>4.988703905492458e-35</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.181268938671831e-31</v>
+        <v>4.968427787285183e-35</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>2.117579360336158e-31</v>
+        <v>4.739773769436676e-35</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>2.588279466353124e-31</v>
+        <v>3.897963437889075e-35</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>2.221485113425645e-31</v>
+        <v>3.155410060005887e-35</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>2.234189260705604e-31</v>
+        <v>2.803518748100461e-35</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>1.979998158319715e-31</v>
+        <v>2.679472279290072e-35</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>1.812747861113351e-31</v>
+        <v>3.142382881485807e-35</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>1.681509382529e-31</v>
+        <v>5.07072276689585e-35</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>1.541044089698311e-31</v>
+        <v>5.991389362811635e-35</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.391478245035299e-31</v>
+        <v>6.097215625618273e-35</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>1.382996805857406e-31</v>
+        <v>5.950948618194753e-35</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>6.688785405048377e-32</v>
+        <v>5.889922078099003e-35</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>2.598331818956321e-32</v>
+        <v>5.849986858639271e-35</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.557159625647073e-32</v>
+        <v>5.189365741014771e-35</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>2.186621549691177e-32</v>
+        <v>4.60631055727906e-35</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>1.351475517977916e-32</v>
+        <v>2.484520283460372e-35</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>1.071477472267866e-32</v>
+        <v>1.220768115103554e-35</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>8.751628269941109e-33</v>
+        <v>8.338130637907765e-36</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>8.692445574862307e-33</v>
+        <v>7.248184916756345e-36</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>1.075655443469163e-32</v>
+        <v>8.893324891889536e-36</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>1.770559826902958e-32</v>
+        <v>9.441746543381429e-36</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>1.74799998212965e-32</v>
+        <v>1.297162099189687e-35</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.341981893368478e-32</v>
+        <v>1.502536673779249e-35</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.143124715406587e-32</v>
+        <v>1.455482896851631e-35</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.306161230628242e-35</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.099114415903341e-35</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.087515042083983e-35</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9.103994332267303e-36</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.208825102738552e-36</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.131466962263154e-36</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.798074724293935e-36</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.372376729253677e-36</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.164595195016095e-36</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.667588162864924e-36</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.829011433939003e-36</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.218010957053115e-36</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.548114404574047e-36</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.837649466736237e-36</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.32122383908663e-36</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.637777768310572e-36</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.326741105286712e-36</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.989618949057826e-36</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.99977349751963e-36</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.898602371257696e-36</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.109299158886967e-36</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.867851143629858e-36</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.752424327408388e-36</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.553625179815138e-36</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.895768305862453e-36</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.883253910653586e-36</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.427692634036253e-36</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.124774093592723e-36</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.886727166825844e-36</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.633592218152873e-36</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.368192978853511e-36</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.345910240682179e-36</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.122529659041373e-36</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.312999370634692e-37</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.569616790117816e-37</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.605209203481886e-37</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.22585341558638e-37</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.757031408247442e-37</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.423547030930594e-37</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.40450739039742e-37</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.701174626180481e-37</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.738884286477918e-37</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.646934629250326e-37</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.986065037006697e-37</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.678309089750854e-37</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>3.387184067100904e-30</v>
+        <v>1.227975449369573e-27</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>8.804694076685572e-30</v>
+        <v>1.278593328537624e-27</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>1.290941874930716e-29</v>
+        <v>1.511759076403477e-27</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>1.282540428386987e-29</v>
+        <v>1.934776828240587e-27</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>1.297411972734829e-29</v>
+        <v>2.356841059786193e-27</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>1.355757365452523e-29</v>
+        <v>4.408214613802741e-27</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>1.154191705364681e-29</v>
+        <v>6.624692097535517e-27</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>1.20613249645322e-29</v>
+        <v>1.710462278778779e-26</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>8.871365860802545e-30</v>
+        <v>2.601599088817353e-26</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>1.048368887667041e-29</v>
+        <v>2.543298322363535e-26</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>7.669089271636929e-30</v>
+        <v>1.860388133731761e-26</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>6.421135812892897e-30</v>
+        <v>8.741146872926939e-27</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>4.508038176185443e-31</v>
+        <v>6.529228876192812e-27</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>2.698956915363031e-31</v>
+        <v>8.089725142450433e-27</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>2.72219920931961e-31</v>
+        <v>3.481191830762071e-27</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>2.298706083301455e-31</v>
+        <v>2.435212684773152e-27</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>2.324728061321201e-31</v>
+        <v>1.325853106326833e-27</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.954247080924659e-31</v>
+        <v>6.147415599604181e-28</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>2.396500719341296e-31</v>
+        <v>4.605790247257396e-28</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>2.750155056328939e-31</v>
+        <v>4.489525046206404e-28</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>5.172297486773903e-31</v>
+        <v>5.0566878350723e-28</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>5.717527380704424e-31</v>
+        <v>6.059365478504144e-28</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>7.398146180171565e-31</v>
+        <v>5.569422083700818e-28</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>7.88602277221754e-31</v>
+        <v>1.110778609654349e-27</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>6.730631076608869e-31</v>
+        <v>1.58889156872504e-27</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>7.977367095642915e-31</v>
+        <v>3.435958185360685e-27</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>7.089907179183019e-31</v>
+        <v>7.652875176789324e-27</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>7.320013729848629e-31</v>
+        <v>6.690355327887543e-27</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>7.068798468782812e-31</v>
+        <v>3.232852602218099e-27</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>6.876606077610962e-31</v>
+        <v>1.495566824524633e-27</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>6.334452391432894e-31</v>
+        <v>6.641074166746736e-28</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>5.708667975677076e-31</v>
+        <v>6.107610762674936e-28</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>6.636351147973114e-31</v>
+        <v>3.796646373732019e-28</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>5.658358575262e-31</v>
+        <v>2.998511108898109e-28</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>5.355102709695104e-31</v>
+        <v>1.809132263140983e-28</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>3.385656880230069e-31</v>
+        <v>1.940758426561799e-28</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>3.370139407943839e-31</v>
+        <v>3.687149822254982e-28</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>2.703837432177808e-31</v>
+        <v>1.947225504856682e-28</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>3.259901142066387e-31</v>
+        <v>7.709719881010301e-29</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>4.839519243500251e-31</v>
+        <v>5.908452930981348e-29</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>4.810780691194328e-31</v>
+        <v>4.234350726551686e-29</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>4.375514213923185e-31</v>
+        <v>4.255931257395709e-29</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>3.688197789008864e-31</v>
+        <v>6.026672440908549e-29</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>3.634789533108783e-31</v>
+        <v>1.311537809658316e-28</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>3.280968929591973e-31</v>
+        <v>1.409400951434623e-28</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>1.656619938610022e-31</v>
+        <v>1.436089449292557e-28</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.654464590725184e-31</v>
+        <v>1.401681737404263e-28</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>1.877144342528265e-31</v>
+        <v>1.173762061537803e-28</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>2.352056437455619e-31</v>
+        <v>9.117028685259633e-29</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>2.806675330085379e-31</v>
+        <v>6.082910837998857e-29</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>5.143298199079321e-31</v>
+        <v>4.912217243768918e-29</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>7.572263697486492e-31</v>
+        <v>4.502178856327556e-29</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>1.934746058904744e-30</v>
+        <v>4.374413361467573e-29</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>2.911583216526458e-30</v>
+        <v>4.011464070533468e-29</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>2.788824925338678e-30</v>
+        <v>3.588143147282352e-29</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>2.006329516654021e-30</v>
+        <v>3.280066619861269e-29</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>9.268826587576169e-31</v>
+        <v>3.604335515183547e-29</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>6.893858597413877e-31</v>
+        <v>4.429117554812444e-29</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>8.50825595637585e-31</v>
+        <v>5.997119712428821e-29</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>3.645002191143839e-31</v>
+        <v>6.991197354058541e-29</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>2.535194202538146e-31</v>
+        <v>8.257816018272334e-29</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.366102378691681e-31</v>
+        <v>9.535992539296599e-29</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>6.200906196396958e-32</v>
+        <v>9.815054319996692e-29</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>4.626919706814591e-32</v>
+        <v>1.12434870945831e-28</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>4.483070682634276e-32</v>
+        <v>1.225251218913249e-28</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>4.997419693652423e-32</v>
+        <v>1.186424250930107e-28</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>5.924465268503895e-32</v>
+        <v>1.230058377210984e-28</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>5.398528209452042e-32</v>
+        <v>1.181132377608655e-28</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>1.064149503015937e-31</v>
+        <v>1.132321474754731e-28</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.505922838635034e-31</v>
+        <v>1.071777281913979e-28</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>3.192594000875854e-31</v>
+        <v>1.046277190961966e-28</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>6.959356373067382e-31</v>
+        <v>9.606254221912802e-29</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>5.959771955084904e-31</v>
+        <v>9.150633143796351e-29</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>2.821287983184428e-31</v>
+        <v>6.657078289763781e-29</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>1.278242517891887e-31</v>
+        <v>5.784148974587209e-29</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>5.557322006975711e-32</v>
+        <v>4.598014418116189e-29</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>5.008893555411322e-32</v>
+        <v>3.166714348021365e-29</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>3.048213264539325e-32</v>
+        <v>2.710650477913275e-29</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>2.359408236610128e-32</v>
+        <v>2.19654967296609e-29</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>1.408173033141432e-32</v>
+        <v>2.019042754312253e-29</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>1.495690922879052e-32</v>
+        <v>2.021180700525517e-29</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>2.783249430954995e-32</v>
+        <v>1.953111719572289e-29</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>1.409663263207798e-32</v>
+        <v>1.784643741800695e-29</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>5.466403313797001e-33</v>
+        <v>1.732520583962925e-29</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>4.105121517202542e-33</v>
+        <v>1.704163870672659e-29</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>2.821888932824311e-33</v>
+        <v>1.843431504777345e-29</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>2.721119688475342e-33</v>
+        <v>1.934927674041855e-29</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.696685982394111e-33</v>
+        <v>1.966249628319425e-29</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>7.958827813418588e-33</v>
+        <v>1.905669126986395e-29</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.487299186111075e-33</v>
+        <v>1.806003289179328e-29</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>8.450109983643522e-33</v>
+        <v>1.611147004588191e-29</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>8.162887033897293e-33</v>
+        <v>1.302775482011603e-29</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>6.762788075807209e-33</v>
+        <v>7.217259962220681e-30</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>5.145695134420076e-33</v>
+        <v>5.725814210466163e-30</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>3.364134329358895e-33</v>
+        <v>4.327349400690999e-30</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>2.660304263975535e-33</v>
+        <v>2.969847874573932e-30</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>2.427490646367562e-33</v>
+        <v>2.603155051100129e-30</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>2.343434563694107e-33</v>
+        <v>2.447227821105201e-30</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>2.127749961683648e-33</v>
+        <v>2.407212418449483e-30</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>1.864797015469909e-33</v>
+        <v>2.232736741809314e-30</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>1.634934189721488e-33</v>
+        <v>2.190894770389288e-30</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>1.736977264999213e-33</v>
+        <v>2.189853531726779e-30</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>2.032473122229852e-33</v>
+        <v>2.174532093797489e-30</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>2.695400288623103e-33</v>
+        <v>2.086284227879837e-30</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>3.076273059353214e-33</v>
+        <v>1.999655938562072e-30</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>3.560267607602993e-33</v>
+        <v>1.953252019273325e-30</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>4.058885041979417e-33</v>
+        <v>1.713381591575633e-30</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>4.142799417428227e-33</v>
+        <v>1.71638217646296e-30</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>4.679927716214439e-33</v>
+        <v>1.711925619723162e-30</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>4.99697737208603e-33</v>
+        <v>1.643642316504223e-30</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>4.803425674377926e-33</v>
+        <v>1.36570199088796e-30</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>4.913488230997973e-33</v>
+        <v>1.116995636978022e-30</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>4.668304280848891e-33</v>
+        <v>1.002255450131749e-30</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>4.448726667346978e-33</v>
+        <v>9.607347797527682e-31</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>4.183692033557373e-33</v>
+        <v>1.135794707853292e-30</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>4.065808864034982e-33</v>
+        <v>1.852158663603707e-30</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>3.711656551620863e-33</v>
+        <v>2.20105739203491e-30</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>3.522217728970981e-33</v>
+        <v>2.254338707762553e-30</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>2.509386822021742e-33</v>
+        <v>2.215142912643532e-30</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>2.156227479809933e-33</v>
+        <v>2.201632988976385e-30</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>1.697779478910773e-33</v>
+        <v>2.191109801091754e-30</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>1.145348983238858e-33</v>
+        <v>1.968262443193015e-30</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>9.695777338083785e-34</v>
+        <v>1.755581698714814e-30</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>7.778229616674977e-34</v>
+        <v>9.681263138835821e-31</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>7.106775990012074e-34</v>
+        <v>4.95623091863002e-31</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>7.112530557150636e-34</v>
+        <v>3.53001287055071e-31</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>6.845108209803814e-34</v>
+        <v>3.198563118329989e-31</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>6.190393647614942e-34</v>
+        <v>4.002408144480631e-31</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>5.971939499575316e-34</v>
+        <v>4.280719481797733e-31</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>5.846598884190282e-34</v>
+        <v>5.967989752720375e-31</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>6.289332134333095e-34</v>
+        <v>7.054995819818708e-31</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>6.558906536027378e-34</v>
+        <v>6.906744544018849e-31</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>6.626341607868384e-34</v>
+        <v>6.262006848762797e-31</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>6.378766607034769e-34</v>
+        <v>5.324099363407268e-31</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>6.010024084042665e-34</v>
+        <v>5.26856781962241e-31</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>5.304276616181926e-34</v>
+        <v>4.454557896876946e-31</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>4.245933357942853e-34</v>
+        <v>3.565067535898488e-31</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>2.303726275954966e-34</v>
+        <v>3.06521802968483e-31</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>1.808690407963662e-34</v>
+        <v>2.915313732393594e-31</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>1.354041008664339e-34</v>
+        <v>2.727904877313292e-31</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>9.107439342504167e-35</v>
+        <v>2.633576278687158e-31</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>7.887454751001338e-35</v>
+        <v>2.393307752441982e-31</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>7.357849085105115e-35</v>
+        <v>2.506308552472846e-31</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>7.1920408199853e-35</v>
+        <v>2.734453167344444e-31</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>6.641349316224261e-35</v>
+        <v>2.935560952744327e-31</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>6.502035395603552e-35</v>
+        <v>3.122838223921369e-31</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>6.493016122093346e-35</v>
+        <v>3.415859835351396e-31</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>6.443843466562731e-35</v>
+        <v>3.625820316376892e-31</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>6.154569422590061e-35</v>
+        <v>3.456134698172123e-31</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>5.874835203351278e-35</v>
+        <v>3.303071010008462e-31</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>5.714271229954066e-35</v>
+        <v>2.787512393891101e-31</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>4.993016104115329e-35</v>
+        <v>2.732183328069716e-31</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>4.988703905492458e-35</v>
+        <v>2.31109623578973e-31</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>4.968427787285183e-35</v>
+        <v>2.181268938671831e-31</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>4.739773769436676e-35</v>
+        <v>2.117579360336158e-31</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>3.897963437889075e-35</v>
+        <v>2.588279466353124e-31</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>3.155410060005887e-35</v>
+        <v>2.221485113425645e-31</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>2.803518748100461e-35</v>
+        <v>2.234189260705604e-31</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>2.679472279290072e-35</v>
+        <v>1.979998158319715e-31</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>3.142382881485807e-35</v>
+        <v>1.812747861113351e-31</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>5.07072276689585e-35</v>
+        <v>1.681509382529e-31</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>5.991389362811635e-35</v>
+        <v>1.541044089698311e-31</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>6.097215625618273e-35</v>
+        <v>1.391478245035299e-31</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>5.950948618194753e-35</v>
+        <v>1.382996805857406e-31</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>5.889922078099003e-35</v>
+        <v>6.688785405048377e-32</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>5.849986858639271e-35</v>
+        <v>2.598331818956321e-32</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>5.189365741014771e-35</v>
+        <v>1.557159625647073e-32</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>4.60631055727906e-35</v>
+        <v>2.186621549691177e-32</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>2.484520283460372e-35</v>
+        <v>1.351475517977916e-32</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>1.220768115103554e-35</v>
+        <v>1.071477472267866e-32</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>8.338130637907765e-36</v>
+        <v>8.751628269941109e-33</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>7.248184916756345e-36</v>
+        <v>8.692445574862307e-33</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>8.893324891889536e-36</v>
+        <v>1.075655443469163e-32</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>9.441746543381429e-36</v>
+        <v>1.770559826902958e-32</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>1.297162099189687e-35</v>
+        <v>1.74799998212965e-32</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>1.502536673779249e-35</v>
+        <v>1.341981893368478e-32</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>1.455482896851631e-35</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.306161230628242e-35</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.099114415903341e-35</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.087515042083983e-35</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>9.103994332267303e-36</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>7.208825102738552e-36</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.131466962263154e-36</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.798074724293935e-36</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.372376729253677e-36</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.164595195016095e-36</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.667588162864924e-36</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.829011433939003e-36</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>5.218010957053115e-36</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5.548114404574047e-36</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>5.837649466736237e-36</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>6.32122383908663e-36</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6.637777768310572e-36</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>6.326741105286712e-36</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.989618949057826e-36</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.99977349751963e-36</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.898602371257696e-36</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.109299158886967e-36</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.867851143629858e-36</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.752424327408388e-36</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.553625179815138e-36</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.895768305862453e-36</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.883253910653586e-36</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.427692634036253e-36</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.124774093592723e-36</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.886727166825844e-36</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.633592218152873e-36</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.368192978853511e-36</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.345910240682179e-36</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.122529659041373e-36</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.312999370634692e-37</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.569616790117816e-37</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.605209203481886e-37</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.22585341558638e-37</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.757031408247442e-37</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.423547030930594e-37</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.40450739039742e-37</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.701174626180481e-37</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2.738884286477918e-37</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.646934629250326e-37</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.986065037006697e-37</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.678309089750854e-37</v>
+        <v>1.143124715406587e-32</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>1.227975449369573e-27</v>
+        <v>5.301595192518152e-12</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.278593328537624e-27</v>
+        <v>8.582659445687279e-12</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.511759076403477e-27</v>
+        <v>1.173108117936661e-11</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>1.934776828240587e-27</v>
+        <v>1.113366520324685e-11</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>2.356841059786193e-27</v>
+        <v>1.332989641981026e-11</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>4.408214613802741e-27</v>
+        <v>1.257066160511804e-11</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>6.624692097535517e-27</v>
+        <v>1.138949894999611e-11</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.710462278778779e-26</v>
+        <v>1.17926072863174e-11</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>2.601599088817353e-26</v>
+        <v>8.278320849103257e-12</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>2.543298322363535e-26</v>
+        <v>9.812004426638469e-12</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.860388133731761e-26</v>
+        <v>1.026000883087589e-11</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>8.741146872926939e-27</v>
+        <v>6.168091562747462e-12</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>6.529228876192812e-27</v>
+        <v>4.14593254578202e-13</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>8.089725142450433e-27</v>
+        <v>2.457697739277293e-13</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>3.481191830762071e-27</v>
+        <v>2.613857440242486e-13</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>2.435212684773152e-27</v>
+        <v>2.154773722554658e-13</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>1.325853106326833e-27</v>
+        <v>2.201360677554509e-13</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>6.147415599604181e-28</v>
+        <v>2.754162284643466e-13</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>4.605790247257396e-28</v>
+        <v>2.245893673398517e-13</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>4.489525046206404e-28</v>
+        <v>2.641163847622088e-13</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0566878350723e-28</v>
+        <v>4.70103360527355e-13</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>6.059365478504144e-28</v>
+        <v>5.412184641026563e-13</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>5.569422083700818e-28</v>
+        <v>7.367318413214229e-13</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>1.110778609654349e-27</v>
+        <v>7.607892518410938e-13</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>1.58889156872504e-27</v>
+        <v>6.97588465639208e-13</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.435958185360685e-27</v>
+        <v>7.479882257244614e-13</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>7.652875176789324e-27</v>
+        <v>7.123517200761725e-13</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>6.690355327887543e-27</v>
+        <v>6.996378442293017e-13</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>3.232852602218099e-27</v>
+        <v>6.764473641382997e-13</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.495566824524633e-27</v>
+        <v>6.694227802678644e-13</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>6.641074166746736e-28</v>
+        <v>6.110219551105677e-13</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>6.107610762674936e-28</v>
+        <v>5.609326376479005e-13</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>3.796646373732019e-28</v>
+        <v>6.182038450189832e-13</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.998511108898109e-28</v>
+        <v>5.358038616187908e-13</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.809132263140983e-28</v>
+        <v>5.005249570981855e-13</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>1.940758426561799e-28</v>
+        <v>3.276690279044599e-13</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>3.687149822254982e-28</v>
+        <v>3.174397084542858e-13</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.947225504856682e-28</v>
+        <v>2.921235317485696e-13</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>7.709719881010301e-29</v>
+        <v>3.081950326678744e-13</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>5.908452930981348e-29</v>
+        <v>4.534378025991949e-13</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>4.234350726551686e-29</v>
+        <v>4.543179368546928e-13</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>4.255931257395709e-29</v>
+        <v>4.070369728862668e-13</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>6.026672440908549e-29</v>
+        <v>3.446576031162409e-13</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>1.311537809658316e-28</v>
+        <v>3.377633172002975e-13</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>1.409400951434623e-28</v>
+        <v>3.068438163721521e-13</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>1.436089449292557e-28</v>
+        <v>1.536094354895758e-13</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>1.401681737404263e-28</v>
+        <v>1.546565452369392e-13</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.173762061537803e-28</v>
+        <v>1.746245976660143e-13</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>9.117028685259633e-29</v>
+        <v>2.202126786281031e-13</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>6.082910837998857e-29</v>
+        <v>2.623293292585109e-13</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>4.912217243768918e-29</v>
+        <v>4.787640369937315e-13</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>4.502178856327556e-29</v>
+        <v>7.048788746216932e-13</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>4.374413361467573e-29</v>
+        <v>1.806681013571401e-12</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>4.011464070533468e-29</v>
+        <v>2.716260668421912e-12</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>3.588143147282352e-29</v>
+        <v>2.598020287673302e-12</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>3.280066619861269e-29</v>
+        <v>1.869974563329533e-12</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>3.604335515183547e-29</v>
+        <v>8.658085164501991e-13</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>4.429117554812444e-29</v>
+        <v>6.445250302871952e-13</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>5.997119712428821e-29</v>
+        <v>7.938602710136419e-13</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>6.991197354058541e-29</v>
+        <v>3.396814182702399e-13</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>8.257816018272334e-29</v>
+        <v>2.356595307086919e-13</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>9.535992539296599e-29</v>
+        <v>1.267269739323827e-13</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>9.815054319996692e-29</v>
+        <v>5.785631684948649e-14</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.12434870945831e-28</v>
+        <v>4.323835290950343e-14</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.225251218913249e-28</v>
+        <v>4.221398616354946e-14</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.186424250930107e-28</v>
+        <v>4.653986313373822e-14</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.230058377210984e-28</v>
+        <v>5.65278139208218e-14</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.181132377608655e-28</v>
+        <v>5.167158152294785e-14</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.132321474754731e-28</v>
+        <v>9.714819701866604e-14</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.071777281913979e-28</v>
+        <v>1.423563636735809e-13</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.046277190961966e-28</v>
+        <v>2.979652318466501e-13</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>9.606254221912802e-29</v>
+        <v>6.493126670209234e-13</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>9.150633143796351e-29</v>
+        <v>5.56369445546406e-13</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>6.657078289763781e-29</v>
+        <v>2.63099567289715e-13</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>5.784148974587209e-29</v>
+        <v>1.19837846796131e-13</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>4.598014418116189e-29</v>
+        <v>5.18329769817401e-14</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>3.166714348021365e-29</v>
+        <v>4.689504843956448e-14</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>2.710650477913275e-29</v>
+        <v>2.900952051986299e-14</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>2.19654967296609e-29</v>
+        <v>2.199870109399461e-14</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>2.019042754312253e-29</v>
+        <v>1.310461453645546e-14</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.021180700525517e-29</v>
+        <v>1.393450378822209e-14</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.953111719572289e-29</v>
+        <v>2.591128273353907e-14</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.784643741800695e-29</v>
+        <v>1.311888706105561e-14</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.732520583962925e-29</v>
+        <v>5.0797354784789e-15</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.704163870672659e-29</v>
+        <v>3.823228128725156e-15</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.843431504777345e-29</v>
+        <v>2.633066480091419e-15</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>1.934927674041855e-29</v>
+        <v>2.517667882442024e-15</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.966249628319425e-29</v>
+        <v>3.447005732801161e-15</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>1.905669126986395e-29</v>
+        <v>7.409124769624213e-15</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.806003289179328e-29</v>
+        <v>7.893286227453795e-15</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>1.611147004588191e-29</v>
+        <v>7.89270601908614e-15</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.302775482011603e-29</v>
+        <v>7.593640242858688e-15</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>7.217259962220681e-30</v>
+        <v>6.277720434856353e-15</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>5.725814210466163e-30</v>
+        <v>4.801430618261953e-15</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>4.327349400690999e-30</v>
+        <v>3.133264098672654e-15</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>2.969847874573932e-30</v>
+        <v>2.484195230560471e-15</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.603155051100129e-30</v>
+        <v>2.268185324101495e-15</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.447227821105201e-30</v>
+        <v>2.16825083300542e-15</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>2.407212418449483e-30</v>
+        <v>1.987925412075955e-15</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>2.232736741809314e-30</v>
+        <v>1.736160876275604e-15</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.190894770389288e-30</v>
+        <v>1.523479717965461e-15</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>2.189853531726779e-30</v>
+        <v>1.621102381281693e-15</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>2.174532093797489e-30</v>
+        <v>1.894171286089695e-15</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>2.086284227879837e-30</v>
+        <v>2.510202212096087e-15</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.999655938562072e-30</v>
+        <v>2.867743369891514e-15</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>1.953252019273325e-30</v>
+        <v>3.314806882651465e-15</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.713381591575633e-30</v>
+        <v>3.782880352644628e-15</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.71638217646296e-30</v>
+        <v>3.859743807968773e-15</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.711925619723162e-30</v>
+        <v>4.365838327876325e-15</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.643642316504223e-30</v>
+        <v>4.657061149174903e-15</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.36570199088796e-30</v>
+        <v>4.476085774956228e-15</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.116995636978022e-30</v>
+        <v>4.575464792456975e-15</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>1.002255450131749e-30</v>
+        <v>4.348564870837858e-15</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>9.607347797527682e-31</v>
+        <v>4.145134907702021e-15</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>1.135794707853292e-30</v>
+        <v>3.899145315630208e-15</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.852158663603707e-30</v>
+        <v>3.782993145359399e-15</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.20105739203491e-30</v>
+        <v>3.457301643661107e-15</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>2.254338707762553e-30</v>
+        <v>3.281954715043896e-15</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>2.215142912643532e-30</v>
+        <v>2.337762317498115e-15</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>2.201632988976385e-30</v>
+        <v>2.007831182112188e-15</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>2.191109801091754e-30</v>
+        <v>1.583560090531328e-15</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>1.968262443193015e-30</v>
+        <v>1.066933683500552e-15</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.755581698714814e-30</v>
+        <v>9.03052545137734e-16</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>9.681263138835821e-31</v>
+        <v>7.25614303812924e-16</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>4.95623091863002e-31</v>
+        <v>6.622754131077627e-16</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>3.53001287055071e-31</v>
+        <v>6.632455253195693e-16</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>3.198563118329989e-31</v>
+        <v>6.392579530763961e-16</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>4.002408144480631e-31</v>
+        <v>5.769561793752153e-16</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>4.280719481797733e-31</v>
+        <v>5.574411994538828e-16</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>5.967989752720375e-31</v>
+        <v>5.443162722780344e-16</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>7.054995819818708e-31</v>
+        <v>5.861126060242209e-16</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>6.906744544018849e-31</v>
+        <v>6.107032435987802e-16</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>6.262006848762797e-31</v>
+        <v>6.169741921315326e-16</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>5.324099363407268e-31</v>
+        <v>5.950388008163223e-16</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>5.26856781962241e-31</v>
+        <v>5.594394256939227e-16</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>4.454557896876946e-31</v>
+        <v>4.939519869367729e-16</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>3.565067535898488e-31</v>
+        <v>3.958403661867058e-16</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>3.06521802968483e-31</v>
+        <v>2.145270540363846e-16</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>2.915313732393594e-31</v>
+        <v>1.680158169029866e-16</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>2.727904877313292e-31</v>
+        <v>1.263412715896759e-16</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>2.633576278687158e-31</v>
+        <v>8.500131015100992e-17</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>2.393307752441982e-31</v>
+        <v>7.335742074581663e-17</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>2.506308552472846e-31</v>
+        <v>6.81885095717474e-17</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.734453167344444e-31</v>
+        <v>6.694446439600243e-17</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>2.935560952744327e-31</v>
+        <v>6.188527815369526e-17</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>3.122838223921369e-31</v>
+        <v>6.089336063326984e-17</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>3.415859835351396e-31</v>
+        <v>6.060188543339459e-17</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>3.625820316376892e-31</v>
+        <v>6.009595803157462e-17</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>3.456134698172123e-31</v>
+        <v>5.730202385983607e-17</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>3.303071010008462e-31</v>
+        <v>5.44891065331269e-17</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>2.787512393891101e-31</v>
+        <v>5.301680084621816e-17</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>2.732183328069716e-31</v>
+        <v>4.673304773554336e-17</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>2.31109623578973e-31</v>
+        <v>4.643953052918114e-17</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.181268938671831e-31</v>
+        <v>4.641418546153729e-17</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>2.117579360336158e-31</v>
+        <v>4.415680251054341e-17</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>2.588279466353124e-31</v>
+        <v>3.634894053384548e-17</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>2.221485113425645e-31</v>
+        <v>2.958937133652127e-17</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>2.234189260705604e-31</v>
+        <v>2.608710564214833e-17</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>1.979998158319715e-31</v>
+        <v>2.493496171457284e-17</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>1.812747861113351e-31</v>
+        <v>2.920930723625364e-17</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>1.681509382529e-31</v>
+        <v>4.753756737450115e-17</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>1.541044089698311e-31</v>
+        <v>5.569282281703595e-17</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.391478245035299e-31</v>
+        <v>5.677946383336731e-17</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>1.382996805857406e-31</v>
+        <v>5.530742865846884e-17</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>6.688785405048377e-32</v>
+        <v>5.479196337646939e-17</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>2.598331818956321e-32</v>
+        <v>5.449829571071889e-17</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.557159625647073e-32</v>
+        <v>4.828372709433597e-17</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>2.186621549691177e-32</v>
+        <v>4.298004321938967e-17</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>1.351475517977916e-32</v>
+        <v>2.314453904552744e-17</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>1.071477472267866e-32</v>
+        <v>1.136312904700896e-17</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>8.751628269941109e-33</v>
+        <v>7.775577505554636e-18</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>8.692445574862307e-33</v>
+        <v>6.760622368495473e-18</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>1.075655443469163e-32</v>
+        <v>8.306425564341295e-18</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>1.770559826902958e-32</v>
+        <v>8.773325267176814e-18</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>1.74799998212965e-32</v>
+        <v>1.204658805659596e-17</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.341981893368478e-32</v>
+        <v>1.407595519957863e-17</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.143124715406587e-32</v>
+        <v>1.354625593349016e-17</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.216308455660758e-17</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.021575418294174e-17</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.013203755702448e-17</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.482398352675518e-18</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.70955979383379e-18</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.728531257196963e-18</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.443660462607162e-18</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.020556041852416e-18</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.822303009065138e-18</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.367887966491132e-18</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.510079264322722e-18</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.875421625810674e-18</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.172662775977046e-18</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.428309378024146e-18</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.883443766579642e-18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.188358912064113e-18</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.896316120114463e-18</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.566864676138044e-18</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.660416273805252e-18</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.564850554811705e-18</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.835215871681557e-18</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.608727967219882e-18</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.501737053461949e-18</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.243485896514147e-18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.627642168700005e-18</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.608152829787286e-18</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.194818560610233e-18</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.912899496132494e-18</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.689337040691142e-18</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.448197759946091e-18</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.20549051979091e-18</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.190266370329491e-18</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.048971133392564e-18</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.013876887080003e-19</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.391122970542015e-19</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.358926455856948e-19</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.073084769671243e-19</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.633552722666789e-19</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.314380082198371e-19</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.281185818115314e-19</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.588334793319001e-19</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.547100328722249e-19</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.462388287298168e-19</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.8486019163729e-19</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.560244614281455e-19</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>5.301595192518152e-12</v>
+        <v>1.225276857123141e-27</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>8.582659445687279e-12</v>
+        <v>1.235861410228309e-27</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.173108117936661e-11</v>
+        <v>1.450734404008623e-27</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1.113366520324685e-11</v>
+        <v>1.88356853760068e-27</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1.332989641981026e-11</v>
+        <v>2.289236622320742e-27</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.257066160511804e-11</v>
+        <v>4.167353167323172e-27</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.138949894999611e-11</v>
+        <v>6.27219172337972e-27</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.17926072863174e-11</v>
+        <v>1.591139086088803e-26</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>8.278320849103257e-12</v>
+        <v>2.41226633919826e-26</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>9.812004426638469e-12</v>
+        <v>2.369640106043023e-26</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.026000883087589e-11</v>
+        <v>1.72764049756133e-26</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>6.168091562747462e-12</v>
+        <v>8.108130747942275e-27</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>4.14593254578202e-13</v>
+        <v>6.106646486821613e-27</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.457697739277293e-13</v>
+        <v>7.551327980601298e-27</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.613857440242486e-13</v>
+        <v>3.294892195006752e-27</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>2.154773722554658e-13</v>
+        <v>2.261895114245827e-27</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>2.201360677554509e-13</v>
+        <v>1.247185394376946e-27</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.754162284643466e-13</v>
+        <v>6.017367283230514e-28</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>2.245893673398517e-13</v>
+        <v>4.496151461769804e-28</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>2.641163847622088e-13</v>
+        <v>4.333119953511263e-28</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>4.70103360527355e-13</v>
+        <v>5.026167418952847e-28</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>5.412184641026563e-13</v>
+        <v>5.944616948974174e-28</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>7.367318413214229e-13</v>
+        <v>5.454333826394385e-28</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>7.607892518410938e-13</v>
+        <v>1.052515254729619e-27</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>6.97588465639208e-13</v>
+        <v>1.544639141948145e-27</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>7.479882257244614e-13</v>
+        <v>3.204828245299801e-27</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>7.123517200761725e-13</v>
+        <v>7.194010987761885e-27</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>6.996378442293017e-13</v>
+        <v>6.322445784317612e-27</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>6.764473641382997e-13</v>
+        <v>2.997860322994259e-27</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>6.694227802678644e-13</v>
+        <v>1.41082712375801e-27</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>6.110219551105677e-13</v>
+        <v>6.303277420154879e-28</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.609326376479005e-13</v>
+        <v>5.731097400041264e-28</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>6.182038450189832e-13</v>
+        <v>3.490840023230582e-28</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>5.358038616187908e-13</v>
+        <v>2.900664278450515e-28</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>5.005249570981855e-13</v>
+        <v>1.640268562507072e-28</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>3.276690279044599e-13</v>
+        <v>1.867566217920958e-28</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>3.174397084542858e-13</v>
+        <v>3.530730092638664e-28</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>2.921235317485696e-13</v>
+        <v>1.857893839757168e-28</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>3.081950326678744e-13</v>
+        <v>7.398613659360389e-29</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>4.534378025991949e-13</v>
+        <v>5.90788322219833e-29</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>4.543179368546928e-13</v>
+        <v>4.166207694299271e-29</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>4.070369728862668e-13</v>
+        <v>4.008410245330505e-29</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>3.446576031162409e-13</v>
+        <v>5.85028608583179e-29</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>3.377633172002975e-13</v>
+        <v>1.242676580144673e-28</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>3.068438163721521e-13</v>
+        <v>1.337233056261614e-28</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.536094354895758e-13</v>
+        <v>1.368073216996039e-28</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.546565452369392e-13</v>
+        <v>1.320780314348823e-28</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.746245976660143e-13</v>
+        <v>1.095657443530469e-28</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>2.202126786281031e-13</v>
+        <v>8.687896294511586e-29</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>2.623293292585109e-13</v>
+        <v>5.833033963942597e-29</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>4.787640369937315e-13</v>
+        <v>4.780313930063623e-29</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>7.048788746216932e-13</v>
+        <v>4.334339388750804e-29</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.806681013571401e-12</v>
+        <v>4.168406176490929e-29</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>2.716260668421912e-12</v>
+        <v>3.847662176160001e-29</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.598020287673302e-12</v>
+        <v>3.421778214710964e-29</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.869974563329533e-12</v>
+        <v>3.129028910260064e-29</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>8.658085164501991e-13</v>
+        <v>3.446697589455355e-29</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>6.445250302871952e-13</v>
+        <v>4.201748649524632e-29</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>7.938602710136419e-13</v>
+        <v>5.596669924809173e-29</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>3.396814182702399e-13</v>
+        <v>6.553039945933394e-29</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2.356595307086919e-13</v>
+        <v>7.702145969040835e-29</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.267269739323827e-13</v>
+        <v>8.884419215364026e-29</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>5.785631684948649e-14</v>
+        <v>9.132921221292252e-29</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>4.323835290950343e-14</v>
+        <v>1.048737662059851e-28</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>4.221398616354946e-14</v>
+        <v>1.138946377859461e-28</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>4.653986313373822e-14</v>
+        <v>1.10380469565965e-28</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>5.65278139208218e-14</v>
+        <v>1.140838606223727e-28</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>5.167158152294785e-14</v>
+        <v>1.096722268845394e-28</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>9.714819701866604e-14</v>
+        <v>1.053448712039508e-28</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.423563636735809e-13</v>
+        <v>9.960756359488037e-29</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>2.979652318466501e-13</v>
+        <v>9.701779929779091e-29</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>6.493126670209234e-13</v>
+        <v>8.907685885026e-29</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>5.56369445546406e-13</v>
+        <v>8.507848901507665e-29</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>2.63099567289715e-13</v>
+        <v>6.192451418801412e-29</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>1.19837846796131e-13</v>
+        <v>5.383238107879717e-29</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>5.18329769817401e-14</v>
+        <v>4.282407629531587e-29</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>4.689504843956448e-14</v>
+        <v>2.947932078584281e-29</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.900952051986299e-14</v>
+        <v>2.52718461360014e-29</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>2.199870109399461e-14</v>
+        <v>2.055620000293844e-29</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.310461453645546e-14</v>
+        <v>1.886917994564041e-29</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.393450378822209e-14</v>
+        <v>1.89169522930824e-29</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>2.591128273353907e-14</v>
+        <v>1.831810968646255e-29</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.311888706105561e-14</v>
+        <v>1.667601384773426e-29</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>5.0797354784789e-15</v>
+        <v>1.623704407898635e-29</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>3.823228128725156e-15</v>
+        <v>1.598172030136484e-29</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>2.633066480091419e-15</v>
+        <v>1.71548445193926e-29</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>2.517667882442024e-15</v>
+        <v>1.806240978545714e-29</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>3.447005732801161e-15</v>
+        <v>1.83396447941852e-29</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>7.409124769624213e-15</v>
+        <v>1.783869117332355e-29</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>7.893286227453795e-15</v>
+        <v>1.681116286329238e-29</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>7.89270601908614e-15</v>
+        <v>1.499746184157945e-29</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>7.593640242858688e-15</v>
+        <v>1.218719569176555e-29</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>6.277720434856353e-15</v>
+        <v>6.763519800564218e-30</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>4.801430618261953e-15</v>
+        <v>5.36102154204702e-30</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>3.133264098672654e-15</v>
+        <v>4.101309348674752e-30</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>2.484195230560471e-15</v>
+        <v>2.822443990202385e-30</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>2.268185324101495e-15</v>
+        <v>2.482067575723833e-30</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.16825083300542e-15</v>
+        <v>2.329976990103847e-30</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.987925412075955e-15</v>
+        <v>2.297056359146865e-30</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.736160876275604e-15</v>
+        <v>2.127968778248382e-30</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.523479717965461e-15</v>
+        <v>2.097446288726422e-30</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.621102381281693e-15</v>
+        <v>2.103500152310317e-30</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.894171286089695e-15</v>
+        <v>2.069835776108287e-30</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>2.510202212096087e-15</v>
+        <v>1.975581111593627e-30</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.867743369891514e-15</v>
+        <v>1.87886322016689e-30</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>3.314806882651465e-15</v>
+        <v>1.810007070062675e-30</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>3.782880352644628e-15</v>
+        <v>1.659882163707188e-30</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>3.859743807968773e-15</v>
+        <v>1.647149986511879e-30</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>4.365838327876325e-15</v>
+        <v>1.660807176660745e-30</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>4.657061149174903e-15</v>
+        <v>1.58371056050624e-30</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>4.476085774956228e-15</v>
+        <v>1.315425233902736e-30</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>4.575464792456975e-15</v>
+        <v>1.090364283985815e-30</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>4.348564870837858e-15</v>
+        <v>9.70511681839098e-31</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>4.145134907702021e-15</v>
+        <v>9.26925116405179e-31</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>3.899145315630208e-15</v>
+        <v>1.105747466923001e-30</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>3.782993145359399e-15</v>
+        <v>1.780952826871999e-30</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>3.457301643661107e-15</v>
+        <v>2.080095330737569e-30</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>3.281954715043896e-15</v>
+        <v>2.139858607159806e-30</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.337762317498115e-15</v>
+        <v>2.088580139904588e-30</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.007831182112188e-15</v>
+        <v>2.096544436677641e-30</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>1.583560090531328e-15</v>
+        <v>2.079210472368827e-30</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>1.066933683500552e-15</v>
+        <v>1.860630560208457e-30</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>9.03052545137734e-16</v>
+        <v>1.669638969806948e-30</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>7.25614303812924e-16</v>
+        <v>9.238974215004294e-31</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>6.622754131077627e-16</v>
+        <v>4.756900411754599e-31</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>6.632455253195693e-16</v>
+        <v>3.434433801610723e-31</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>6.392579530763961e-16</v>
+        <v>3.0630569818205e-31</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>5.769561793752153e-16</v>
+        <v>3.850752557037062e-31</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>5.574411994538828e-16</v>
+        <v>4.091260741153848e-31</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>5.443162722780344e-16</v>
+        <v>5.649431803790114e-31</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>5.861126060242209e-16</v>
+        <v>6.665016079221694e-31</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>6.107032435987802e-16</v>
+        <v>6.566935710681709e-31</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>6.169741921315326e-16</v>
+        <v>5.912979992571961e-31</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>5.950388008163223e-16</v>
+        <v>4.982302359285079e-31</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>5.594394256939227e-16</v>
+        <v>4.184210890158562e-31</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>4.939519869367729e-16</v>
+        <v>3.350349408343088e-31</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>3.958403661867058e-16</v>
+        <v>2.918034848713849e-31</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>2.145270540363846e-16</v>
+        <v>2.819024373450068e-31</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>1.680158169029866e-16</v>
+        <v>2.559212458348789e-31</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.263412715896759e-16</v>
+        <v>2.492394473662849e-31</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>8.500131015100992e-17</v>
+        <v>2.331226317069317e-31</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>7.335742074581663e-17</v>
+        <v>2.398883016895478e-31</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>6.81885095717474e-17</v>
+        <v>2.60919623631312e-31</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>6.694446439600243e-17</v>
+        <v>2.779868973143534e-31</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>6.188527815369526e-17</v>
+        <v>2.950005411726759e-31</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>6.089336063326984e-17</v>
+        <v>3.209476863174716e-31</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>6.060188543339459e-17</v>
+        <v>3.328512930432509e-31</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>6.009595803157462e-17</v>
+        <v>3.083029233049757e-31</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>5.730202385983607e-17</v>
+        <v>2.622224456955525e-31</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>5.44891065331269e-17</v>
+        <v>2.572090150859831e-31</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>5.301680084621816e-17</v>
+        <v>2.182748620094654e-31</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>4.673304773554336e-17</v>
+        <v>2.059697544737613e-31</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>4.643953052918114e-17</v>
+        <v>2.00274837763664e-31</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>4.641418546153729e-17</v>
+        <v>2.427379976603195e-31</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>4.415680251054341e-17</v>
+        <v>2.095200130113783e-31</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>3.634894053384548e-17</v>
+        <v>2.099063353253343e-31</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>2.958937133652127e-17</v>
+        <v>1.86824386160306e-31</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>2.608710564214833e-17</v>
+        <v>1.711640666779651e-31</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>2.493496171457284e-17</v>
+        <v>1.591331864971473e-31</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2.920930723625364e-17</v>
+        <v>1.439774707244754e-31</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>4.753756737450115e-17</v>
+        <v>1.316474326980287e-31</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>5.569282281703595e-17</v>
+        <v>1.318893062675726e-31</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>5.677946383336731e-17</v>
+        <v>6.460223285202231e-32</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>5.530742865846884e-17</v>
+        <v>2.524005562453843e-32</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>5.479196337646939e-17</v>
+        <v>1.477543930374574e-32</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>5.449829571071889e-17</v>
+        <v>2.118270651023856e-32</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>4.828372709433597e-17</v>
+        <v>1.310914826673038e-32</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>4.298004321938967e-17</v>
+        <v>1.02646104155168e-32</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.314453904552744e-17</v>
+        <v>8.268368371753674e-33</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.136312904700896e-17</v>
+        <v>8.059407640987168e-33</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>7.775577505554636e-18</v>
+        <v>1.053194764298002e-32</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>6.760622368495473e-18</v>
+        <v>1.711888187660257e-32</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>8.306425564341295e-18</v>
+        <v>1.693025109343231e-32</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>8.773325267176814e-18</v>
+        <v>1.295063286622097e-32</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.204658805659596e-17</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.407595519957863e-17</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.354625593349016e-17</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.216308455660758e-17</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.021575418294174e-17</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.013203755702448e-17</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>8.482398352675518e-18</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.70955979383379e-18</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5.728531257196963e-18</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.443660462607162e-18</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.020556041852416e-18</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.822303009065138e-18</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.367887966491132e-18</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.510079264322722e-18</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.875421625810674e-18</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5.172662775977046e-18</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>5.428309378024146e-18</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>5.883443766579642e-18</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6.188358912064113e-18</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>5.896316120114463e-18</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.566864676138044e-18</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.660416273805252e-18</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.564850554811705e-18</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.835215871681557e-18</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.608727967219882e-18</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.501737053461949e-18</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.243485896514147e-18</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.627642168700005e-18</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.608152829787286e-18</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.194818560610233e-18</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.912899496132494e-18</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.689337040691142e-18</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.448197759946091e-18</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.20549051979091e-18</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.190266370329491e-18</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.048971133392564e-18</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.013876887080003e-19</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.391122970542015e-19</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.358926455856948e-19</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.073084769671243e-19</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.633552722666789e-19</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.314380082198371e-19</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.281185818115314e-19</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.588334793319001e-19</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2.547100328722249e-19</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.462388287298168e-19</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.8486019163729e-19</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.560244614281455e-19</v>
+        <v>1.1024626722712e-32</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.800000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.225276857123141e-27</v>
+        <v>6.411562825001049e-28</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.235861410228309e-27</v>
+        <v>7.666338154281472e-28</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.450734404008623e-27</v>
+        <v>1.035199298883526e-27</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1.88356853760068e-27</v>
+        <v>1.55594333944169e-27</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.289236622320742e-27</v>
+        <v>2.056408545961992e-27</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>4.167353167323172e-27</v>
+        <v>3.822120850814173e-27</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>6.27219172337972e-27</v>
+        <v>6.086589049786624e-27</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.591139086088803e-26</v>
+        <v>1.553469560800399e-26</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>2.41226633919826e-26</v>
+        <v>2.361754997821289e-26</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>2.369640106043023e-26</v>
+        <v>2.351989046659238e-26</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.72764049756133e-26</v>
+        <v>1.705056622774066e-26</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>8.108130747942275e-27</v>
+        <v>8.029525166856905e-27</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>6.106646486821613e-27</v>
+        <v>5.926826180363394e-27</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>7.551327980601298e-27</v>
+        <v>7.456321156403134e-27</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>3.294892195006752e-27</v>
+        <v>3.144956497140338e-27</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>2.261895114245827e-27</v>
+        <v>2.161443327991898e-27</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.247185394376946e-27</v>
+        <v>1.078900423987761e-27</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>6.017367283230514e-28</v>
+        <v>4.866363131251116e-28</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>4.496151461769804e-28</v>
+        <v>3.611783414272287e-28</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>4.333119953511263e-28</v>
+        <v>3.291510492094005e-28</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>5.026167418952847e-28</v>
+        <v>4.272300739968243e-28</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>5.944616948974174e-28</v>
+        <v>5.639299799099834e-28</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>5.454333826394385e-28</v>
+        <v>4.592358903671494e-28</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.052515254729619e-27</v>
+        <v>9.12943234891023e-28</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1.544639141948145e-27</v>
+        <v>1.368171389425576e-27</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>3.204828245299801e-27</v>
+        <v>3.175048473348753e-27</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>7.194010987761885e-27</v>
+        <v>7.151037056323709e-27</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>6.322445784317612e-27</v>
+        <v>6.241654289593686e-27</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>2.997860322994259e-27</v>
+        <v>2.979674889375081e-27</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.41082712375801e-27</v>
+        <v>1.361275800381316e-27</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>6.303277420154879e-28</v>
+        <v>6.03233956703895e-28</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.731097400041264e-28</v>
+        <v>5.453561730358737e-28</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.490840023230582e-28</v>
+        <v>3.588860514044362e-28</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>2.900664278450515e-28</v>
+        <v>2.225443151339126e-28</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.640268562507072e-28</v>
+        <v>1.609422767563026e-28</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.867566217920958e-28</v>
+        <v>1.807345002797777e-28</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>3.530730092638664e-28</v>
+        <v>3.47192780239485e-28</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.857893839757168e-28</v>
+        <v>1.826002511571941e-28</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>7.398613659360389e-29</v>
+        <v>6.78318053064672e-29</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>5.90788322219833e-29</v>
+        <v>5.179081475309847e-29</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>4.166207694299271e-29</v>
+        <v>3.872999541255566e-29</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>4.008410245330505e-29</v>
+        <v>3.664463189627806e-29</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>5.85028608583179e-29</v>
+        <v>5.73880869884394e-29</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.242676580144673e-28</v>
+        <v>1.225158602835272e-28</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.337233056261614e-28</v>
+        <v>1.318558141752702e-28</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.368073216996039e-28</v>
+        <v>1.36791832833762e-28</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.320780314348823e-28</v>
+        <v>1.315186351660647e-28</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.095657443530469e-28</v>
+        <v>1.080853431571169e-28</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>8.687896294511586e-29</v>
+        <v>8.550108832028824e-29</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>5.833033963942597e-29</v>
+        <v>5.864200714046289e-29</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>4.780313930063623e-29</v>
+        <v>4.736027881039354e-29</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>4.334339388750804e-29</v>
+        <v>4.382445282292599e-29</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>4.168406176490929e-29</v>
+        <v>4.101342462163049e-29</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>3.847662176160001e-29</v>
+        <v>3.689669979959973e-29</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>3.421778214710964e-29</v>
+        <v>3.293146413334786e-29</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>3.129028910260064e-29</v>
+        <v>3.083650440143298e-29</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>3.446697589455355e-29</v>
+        <v>3.398305727862603e-29</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>4.201748649524632e-29</v>
+        <v>4.203010221798265e-29</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>5.596669924809173e-29</v>
+        <v>5.625820098655495e-29</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>6.553039945933394e-29</v>
+        <v>6.580183931216805e-29</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>7.702145969040835e-29</v>
+        <v>7.721924437341335e-29</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>8.884419215364026e-29</v>
+        <v>8.925484595258995e-29</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>9.132921221292252e-29</v>
+        <v>9.148424621282011e-29</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.048737662059851e-28</v>
+        <v>1.049756949879177e-28</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.138946377859461e-28</v>
+        <v>1.144982661258588e-28</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.10380469565965e-28</v>
+        <v>1.107223391341589e-28</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.140838606223727e-28</v>
+        <v>1.153591473198546e-28</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.096722268845394e-28</v>
+        <v>1.099451806174411e-28</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.053448712039508e-28</v>
+        <v>1.060648354963096e-28</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>9.960756359488037e-29</v>
+        <v>1.000674014230143e-28</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>9.701779929779091e-29</v>
+        <v>9.719311749660737e-29</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>8.907685885026e-29</v>
+        <v>8.996397816998686e-29</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>8.507848901507665e-29</v>
+        <v>8.540362677275016e-29</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>6.192451418801412e-29</v>
+        <v>6.245203700255727e-29</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.383238107879717e-29</v>
+        <v>5.384984753390326e-29</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>4.282407629531587e-29</v>
+        <v>4.296380572040284e-29</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2.947932078584281e-29</v>
+        <v>2.966189573174239e-29</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.52718461360014e-29</v>
+        <v>2.539938053297068e-29</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>2.055620000293844e-29</v>
+        <v>2.06024306144662e-29</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.886917994564041e-29</v>
+        <v>1.895190309946524e-29</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.89169522930824e-29</v>
+        <v>1.896477966241736e-29</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.831810968646255e-29</v>
+        <v>1.83776129690659e-29</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.667601384773426e-29</v>
+        <v>1.671290662844071e-29</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.623704407898635e-29</v>
+        <v>1.625922124657474e-29</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1.598172030136484e-29</v>
+        <v>1.599336414773102e-29</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.71548445193926e-29</v>
+        <v>1.72222573957948e-29</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.806240978545714e-29</v>
+        <v>1.806419391480805e-29</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.83396447941852e-29</v>
+        <v>1.832945680651762e-29</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.783869117332355e-29</v>
+        <v>1.784573824891618e-29</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.681116286329238e-29</v>
+        <v>1.686390332304534e-29</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.499746184157945e-29</v>
+        <v>1.498717780550425e-29</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1.218719569176555e-29</v>
+        <v>1.225036486120452e-29</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>6.763519800564218e-30</v>
+        <v>6.806346127895161e-30</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>5.36102154204702e-30</v>
+        <v>5.417344005278514e-30</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>4.101309348674752e-30</v>
+        <v>4.122590844569497e-30</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>2.822443990202385e-30</v>
+        <v>2.838681897920416e-30</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>2.482067575723833e-30</v>
+        <v>2.485909140383081e-30</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.329976990103847e-30</v>
+        <v>2.330760079433593e-30</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>2.297056359146865e-30</v>
+        <v>2.283686880214611e-30</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>2.127968778248382e-30</v>
+        <v>2.113748343229391e-30</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>2.097446288726422e-30</v>
+        <v>2.098961676668435e-30</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2.103500152310317e-30</v>
+        <v>2.088287958612571e-30</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.069835776108287e-30</v>
+        <v>2.072681002450693e-30</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.975581111593627e-30</v>
+        <v>1.993723563006345e-30</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.87886322016689e-30</v>
+        <v>1.870464658703346e-30</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.810007070062675e-30</v>
+        <v>1.806769387615184e-30</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.659882163707188e-30</v>
+        <v>1.651210621296757e-30</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.647149986511879e-30</v>
+        <v>1.63282459736732e-30</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.660807176660745e-30</v>
+        <v>1.658655204234824e-30</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.58371056050624e-30</v>
+        <v>1.560288514761462e-30</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.315425233902736e-30</v>
+        <v>1.303882849496981e-30</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.090364283985815e-30</v>
+        <v>1.095084516116205e-30</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>9.70511681839098e-31</v>
+        <v>9.705653810201396e-31</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>9.26925116405179e-31</v>
+        <v>9.393830687917534e-31</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.105747466923001e-30</v>
+        <v>1.101721290656524e-30</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.780952826871999e-30</v>
+        <v>1.77281187764935e-30</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>2.080095330737569e-30</v>
+        <v>2.081922592239467e-30</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>2.139858607159806e-30</v>
+        <v>2.134081808004557e-30</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.088580139904588e-30</v>
+        <v>2.085857571960133e-30</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.096544436677641e-30</v>
+        <v>2.094693404627915e-30</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2.079210472368827e-30</v>
+        <v>2.086982629188513e-30</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>1.860630560208457e-30</v>
+        <v>1.87100053065165e-30</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.669638969806948e-30</v>
+        <v>1.680527828269007e-30</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>9.238974215004294e-31</v>
+        <v>9.25653112230634e-31</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>4.756900411754599e-31</v>
+        <v>4.796935459406315e-31</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>3.434433801610723e-31</v>
+        <v>3.436187221302836e-31</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>3.0630569818205e-31</v>
+        <v>3.088125601462753e-31</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>3.850752557037062e-31</v>
+        <v>3.851586677609536e-31</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>4.091260741153848e-31</v>
+        <v>4.082368535297588e-31</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>5.649431803790114e-31</v>
+        <v>5.621401781399214e-31</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>6.665016079221694e-31</v>
+        <v>6.774674074490013e-31</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>6.566935710681709e-31</v>
+        <v>6.57662868958605e-31</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>5.912979992571961e-31</v>
+        <v>5.920133347979555e-31</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>4.982302359285079e-31</v>
+        <v>4.976399244308972e-31</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>4.184210890158562e-31</v>
+        <v>4.167380448836724e-31</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>3.350349408343088e-31</v>
+        <v>3.398983171356362e-31</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>2.918034848713849e-31</v>
+        <v>2.893425033235764e-31</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>2.819024373450068e-31</v>
+        <v>2.763457352121853e-31</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>2.559212458348789e-31</v>
+        <v>2.352907322514264e-31</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>2.492394473662849e-31</v>
+        <v>2.476270298323753e-31</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>2.331226317069317e-31</v>
+        <v>2.338506447945849e-31</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>2.398883016895478e-31</v>
+        <v>2.312681503996693e-31</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>2.60919623631312e-31</v>
+        <v>2.583669518084175e-31</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>2.779868973143534e-31</v>
+        <v>2.767145250573916e-31</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>2.950005411726759e-31</v>
+        <v>2.937317919129537e-31</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>3.209476863174716e-31</v>
+        <v>3.202358919427013e-31</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>3.328512930432509e-31</v>
+        <v>3.334169253649822e-31</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>3.083029233049757e-31</v>
+        <v>3.074675815751853e-31</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>2.622224456955525e-31</v>
+        <v>2.630532941855388e-31</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>2.572090150859831e-31</v>
+        <v>2.582863375704988e-31</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>2.182748620094654e-31</v>
+        <v>2.197868668695754e-31</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>2.059697544737613e-31</v>
+        <v>2.065087208840315e-31</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2.00274837763664e-31</v>
+        <v>2.010715660788688e-31</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>2.427379976603195e-31</v>
+        <v>2.440607214935025e-31</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>2.095200130113783e-31</v>
+        <v>2.100075101020181e-31</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>2.099063353253343e-31</v>
+        <v>2.110233781985512e-31</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.86824386160306e-31</v>
+        <v>1.875986872150706e-31</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.711640666779651e-31</v>
+        <v>1.719144730154246e-31</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.591331864971473e-31</v>
+        <v>1.592520309475433e-31</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.439774707244754e-31</v>
+        <v>1.449905428451852e-31</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.316474326980287e-31</v>
+        <v>1.322407435168134e-31</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.318893062675726e-31</v>
+        <v>1.32719370664315e-31</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>6.460223285202231e-32</v>
+        <v>6.497142832265757e-32</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>2.524005562453843e-32</v>
+        <v>2.599009957957084e-32</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.477543930374574e-32</v>
+        <v>1.50950656905815e-32</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>2.118270651023856e-32</v>
+        <v>2.154555620843835e-32</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.310914826673038e-32</v>
+        <v>1.352963104224364e-32</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.02646104155168e-32</v>
+        <v>1.066186980526e-32</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>8.268368371753674e-33</v>
+        <v>8.559968109681839e-33</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>8.059407640987168e-33</v>
+        <v>7.376718726672826e-33</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.053194764298002e-32</v>
+        <v>1.061378244301199e-32</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.711888187660257e-32</v>
+        <v>1.700559238573189e-32</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.693025109343231e-32</v>
+        <v>1.709799599541467e-32</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.295063286622097e-32</v>
+        <v>1.316649257302266e-32</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.1024626722712e-32</v>
+        <v>1.124874777128039e-32</v>
       </c>
     </row>
   </sheetData>
